--- a/data/yahoofin/VGLT_yahoofin_historical_data.xlsx
+++ b/data/yahoofin/VGLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.210564</v>
+        <v>61.21056</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>62.001316</v>
+        <v>62.00132</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>62.206326</v>
+        <v>62.206337</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -589,7 +589,7 @@
         <v>65.150002</v>
       </c>
       <c r="F6" t="n">
-        <v>63.602356</v>
+        <v>63.60236</v>
       </c>
       <c r="G6" t="n">
         <v>1937300</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.655403</v>
+        <v>62.655399</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>64.168587</v>
+        <v>64.168594</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.826889</v>
+        <v>63.8269</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.271744</v>
+        <v>65.271736</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.944038</v>
+        <v>63.944042</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.621876</v>
+        <v>63.621887</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -864,7 +864,7 @@
         <v>66.230003</v>
       </c>
       <c r="F17" t="n">
-        <v>64.65670799999999</v>
+        <v>64.656693</v>
       </c>
       <c r="G17" t="n">
         <v>649100</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.963562</v>
+        <v>63.963558</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.45169799999999</v>
+        <v>64.451683</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.26494599999999</v>
+        <v>65.264938</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1039,7 +1039,7 @@
         <v>65.709999</v>
       </c>
       <c r="F24" t="n">
-        <v>64.305862</v>
+        <v>64.30587800000001</v>
       </c>
       <c r="G24" t="n">
         <v>1070600</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.346828</v>
+        <v>63.346825</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.62085</v>
+        <v>63.620846</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1139,7 +1139,7 @@
         <v>64.44000200000001</v>
       </c>
       <c r="F28" t="n">
-        <v>63.063023</v>
+        <v>63.063019</v>
       </c>
       <c r="G28" t="n">
         <v>1009500</v>
@@ -1164,7 +1164,7 @@
         <v>63.75</v>
       </c>
       <c r="F29" t="n">
-        <v>62.387764</v>
+        <v>62.38776</v>
       </c>
       <c r="G29" t="n">
         <v>998200</v>
@@ -1189,7 +1189,7 @@
         <v>64.279999</v>
       </c>
       <c r="F30" t="n">
-        <v>62.906441</v>
+        <v>62.906437</v>
       </c>
       <c r="G30" t="n">
         <v>767200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.730282</v>
+        <v>62.730274</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.22139</v>
+        <v>62.221397</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.438488</v>
+        <v>61.438484</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.714306</v>
+        <v>60.714302</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1339,7 +1339,7 @@
         <v>62.5</v>
       </c>
       <c r="F36" t="n">
-        <v>61.164471</v>
+        <v>61.164467</v>
       </c>
       <c r="G36" t="n">
         <v>3901100</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.712509</v>
+        <v>61.712505</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1389,7 +1389,7 @@
         <v>62.290001</v>
       </c>
       <c r="F38" t="n">
-        <v>60.958961</v>
+        <v>60.958958</v>
       </c>
       <c r="G38" t="n">
         <v>1065300</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.399345</v>
+        <v>61.399338</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.664581</v>
+        <v>60.664577</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1489,7 +1489,7 @@
         <v>61.349998</v>
       </c>
       <c r="F42" t="n">
-        <v>60.183895</v>
+        <v>60.183887</v>
       </c>
       <c r="G42" t="n">
         <v>1611500</v>
@@ -1514,7 +1514,7 @@
         <v>62.669998</v>
       </c>
       <c r="F43" t="n">
-        <v>61.478806</v>
+        <v>61.478802</v>
       </c>
       <c r="G43" t="n">
         <v>658900</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>61.086411</v>
+        <v>61.086407</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1564,7 +1564,7 @@
         <v>62.599998</v>
       </c>
       <c r="F45" t="n">
-        <v>61.41013</v>
+        <v>61.410137</v>
       </c>
       <c r="G45" t="n">
         <v>748100</v>
@@ -1589,7 +1589,7 @@
         <v>62.669998</v>
       </c>
       <c r="F46" t="n">
-        <v>61.478806</v>
+        <v>61.478802</v>
       </c>
       <c r="G46" t="n">
         <v>758100</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>64.205956</v>
+        <v>64.20597100000001</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1789,7 +1789,7 @@
         <v>65.260002</v>
       </c>
       <c r="F54" t="n">
-        <v>64.019569</v>
+        <v>64.01958500000001</v>
       </c>
       <c r="G54" t="n">
         <v>849300</v>
@@ -1814,7 +1814,7 @@
         <v>64.629997</v>
       </c>
       <c r="F55" t="n">
-        <v>63.401543</v>
+        <v>63.401546</v>
       </c>
       <c r="G55" t="n">
         <v>602500</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.333496</v>
+        <v>64.33348100000001</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.598366</v>
+        <v>64.598373</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.332882</v>
+        <v>63.332878</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>63.166111</v>
+        <v>63.166107</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -1989,7 +1989,7 @@
         <v>64.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>63.480034</v>
+        <v>63.480026</v>
       </c>
       <c r="G62" t="n">
         <v>579700</v>
@@ -2014,7 +2014,7 @@
         <v>65.510002</v>
       </c>
       <c r="F63" t="n">
-        <v>64.264824</v>
+        <v>64.264832</v>
       </c>
       <c r="G63" t="n">
         <v>984700</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.615944</v>
+        <v>64.61592899999999</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.619095</v>
+        <v>65.619102</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2114,7 +2114,7 @@
         <v>66.83000199999999</v>
       </c>
       <c r="F67" t="n">
-        <v>65.727295</v>
+        <v>65.727287</v>
       </c>
       <c r="G67" t="n">
         <v>885000</v>
@@ -2139,7 +2139,7 @@
         <v>65.910004</v>
       </c>
       <c r="F68" t="n">
-        <v>64.822479</v>
+        <v>64.822472</v>
       </c>
       <c r="G68" t="n">
         <v>1016900</v>
@@ -2164,7 +2164,7 @@
         <v>65.989998</v>
       </c>
       <c r="F69" t="n">
-        <v>64.90115400000001</v>
+        <v>64.901146</v>
       </c>
       <c r="G69" t="n">
         <v>474700</v>
@@ -2189,7 +2189,7 @@
         <v>65.949997</v>
       </c>
       <c r="F70" t="n">
-        <v>64.861794</v>
+        <v>64.861801</v>
       </c>
       <c r="G70" t="n">
         <v>3967800</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>63.101345</v>
+        <v>63.101349</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2289,7 +2289,7 @@
         <v>64.410004</v>
       </c>
       <c r="F74" t="n">
-        <v>63.347221</v>
+        <v>63.347218</v>
       </c>
       <c r="G74" t="n">
         <v>1028100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.258698</v>
+        <v>63.258705</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2339,7 +2339,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>63.750458</v>
+        <v>63.75045</v>
       </c>
       <c r="G76" t="n">
         <v>1076800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.406227</v>
+        <v>63.406235</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2414,7 +2414,7 @@
         <v>65.989998</v>
       </c>
       <c r="F79" t="n">
-        <v>64.90115400000001</v>
+        <v>64.901146</v>
       </c>
       <c r="G79" t="n">
         <v>1060400</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.28154000000001</v>
+        <v>64.281548</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.681595</v>
+        <v>63.68161</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.59626</v>
+        <v>64.59626799999999</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2514,7 +2514,7 @@
         <v>63.849998</v>
       </c>
       <c r="F83" t="n">
-        <v>62.951729</v>
+        <v>62.951725</v>
       </c>
       <c r="G83" t="n">
         <v>1955400</v>
@@ -2689,7 +2689,7 @@
         <v>64.470001</v>
       </c>
       <c r="F90" t="n">
-        <v>63.563</v>
+        <v>63.563011</v>
       </c>
       <c r="G90" t="n">
         <v>1072100</v>
@@ -2714,7 +2714,7 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>64.154556</v>
+        <v>64.154572</v>
       </c>
       <c r="G91" t="n">
         <v>1455400</v>
@@ -2764,7 +2764,7 @@
         <v>63.950001</v>
       </c>
       <c r="F93" t="n">
-        <v>63.050323</v>
+        <v>63.050327</v>
       </c>
       <c r="G93" t="n">
         <v>1566900</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.808048</v>
+        <v>61.808044</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.45311</v>
+        <v>61.453114</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.246063</v>
+        <v>61.246067</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>63.020359</v>
+        <v>63.020355</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.427227</v>
+        <v>62.427223</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.427227</v>
+        <v>62.427223</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3214,7 +3214,7 @@
         <v>63.099998</v>
       </c>
       <c r="F111" t="n">
-        <v>62.377792</v>
+        <v>62.377796</v>
       </c>
       <c r="G111" t="n">
         <v>753400</v>
@@ -3239,7 +3239,7 @@
         <v>63.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>62.496422</v>
+        <v>62.496429</v>
       </c>
       <c r="G112" t="n">
         <v>1210000</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.90329</v>
+        <v>61.903294</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3289,7 +3289,7 @@
         <v>62.990002</v>
       </c>
       <c r="F114" t="n">
-        <v>62.269062</v>
+        <v>62.269058</v>
       </c>
       <c r="G114" t="n">
         <v>2601500</v>
@@ -3364,7 +3364,7 @@
         <v>63.77</v>
       </c>
       <c r="F117" t="n">
-        <v>63.040134</v>
+        <v>63.040131</v>
       </c>
       <c r="G117" t="n">
         <v>1103600</v>
@@ -3389,7 +3389,7 @@
         <v>63.919998</v>
       </c>
       <c r="F118" t="n">
-        <v>63.188412</v>
+        <v>63.188416</v>
       </c>
       <c r="G118" t="n">
         <v>1364600</v>
@@ -3439,7 +3439,7 @@
         <v>63.77</v>
       </c>
       <c r="F120" t="n">
-        <v>63.040134</v>
+        <v>63.040131</v>
       </c>
       <c r="G120" t="n">
         <v>1044200</v>
@@ -3464,7 +3464,7 @@
         <v>63.84</v>
       </c>
       <c r="F121" t="n">
-        <v>63.109329</v>
+        <v>63.109333</v>
       </c>
       <c r="G121" t="n">
         <v>708800</v>
@@ -3489,7 +3489,7 @@
         <v>63.669998</v>
       </c>
       <c r="F122" t="n">
-        <v>62.941269</v>
+        <v>62.941273</v>
       </c>
       <c r="G122" t="n">
         <v>997800</v>
@@ -3514,7 +3514,7 @@
         <v>63.959999</v>
       </c>
       <c r="F123" t="n">
-        <v>63.227955</v>
+        <v>63.227951</v>
       </c>
       <c r="G123" t="n">
         <v>1397500</v>
@@ -3539,7 +3539,7 @@
         <v>62.889999</v>
       </c>
       <c r="F124" t="n">
-        <v>62.1702</v>
+        <v>62.170204</v>
       </c>
       <c r="G124" t="n">
         <v>3689200</v>
@@ -3739,7 +3739,7 @@
         <v>62.380001</v>
       </c>
       <c r="F132" t="n">
-        <v>61.826618</v>
+        <v>61.826614</v>
       </c>
       <c r="G132" t="n">
         <v>2163600</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.302361</v>
+        <v>62.302357</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3939,7 +3939,7 @@
         <v>62.68</v>
       </c>
       <c r="F140" t="n">
-        <v>62.123959</v>
+        <v>62.123955</v>
       </c>
       <c r="G140" t="n">
         <v>1398500</v>
@@ -5527,22 +5527,47 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>52.240002</v>
+        <v>52.139999</v>
       </c>
       <c r="C204" t="n">
-        <v>52.150002</v>
+        <v>53.32</v>
       </c>
       <c r="D204" t="n">
-        <v>51.904999</v>
+        <v>51.91</v>
       </c>
       <c r="E204" t="n">
-        <v>51.950001</v>
+        <v>52.970001</v>
       </c>
       <c r="F204" t="n">
-        <v>51.950001</v>
+        <v>52.970001</v>
       </c>
       <c r="G204" t="n">
-        <v>118521</v>
+        <v>2253400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>53.060001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>53.439999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>52.849998</v>
+      </c>
+      <c r="E205" t="n">
+        <v>53.439999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>53.439999</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3522916</v>
       </c>
     </row>
   </sheetData>
